--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="265">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/hl7-eu/unicom-ig/branches/mpd-r5/StructureDefinition/FullMedicinalProduct</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/FullMedicinalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:11:06+00:00</t>
+    <t>2022-10-21T23:00:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,26 +234,39 @@
     <t>Base</t>
   </si>
   <si>
-    <t>FullMedicinalProduct.mpId</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.identifier</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {https://build.fhir.org/ig/hl7-eu/unicom-ig/branches/mpd-r5/StructureDefinition/II}
+    <t xml:space="preserve">BackboneElement {http://unicom-project.eu/fhir/StructureDefinition/class}
 </t>
   </si>
   <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.identifier.mpId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/II}
+</t>
+  </si>
+  <si>
     <t>Medicinal Product Identifier (MPID)</t>
   </si>
   <si>
-    <t>FullMedicinalProduct.pmsId</t>
+    <t>FullMedicinalProduct.identifier.pmsId</t>
   </si>
   <si>
     <t>EMA PMS Identifier</t>
   </si>
   <si>
-    <t>FullMedicinalProduct.nationalId</t>
+    <t>FullMedicinalProduct.identifier.nationalId</t>
   </si>
   <si>
     <t>National/other identifier</t>
@@ -262,7 +275,7 @@
     <t>FullMedicinalProduct.domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {https://build.fhir.org/ig/hl7-eu/unicom-ig/branches/mpd-r5/StructureDefinition/CD}
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/CD}
 </t>
   </si>
   <si>
@@ -281,581 +294,527 @@
     <t>Authorised dose form</t>
   </si>
   <si>
-    <t>FullMedicinalProduct.classificationATC</t>
-  </si>
-  <si>
-    <t>ATC Classification</t>
+    <t>FullMedicinalProduct.classification</t>
+  </si>
+  <si>
+    <t>Classifications</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.classification.classificationATC</t>
+  </si>
+  <si>
+    <t>ATC classification</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.classification.classificationOther</t>
+  </si>
+  <si>
+    <t>Other classification</t>
   </si>
   <si>
     <t>FullMedicinalProduct.name</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {https://build.fhir.org/ig/hl7-eu/unicom-ig/branches/mpd-r5/StructureDefinition/class}
+    <t>FullMedicinalProduct.name.fullName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/ST}
 </t>
   </si>
   <si>
-    <t>FullMedicinalProduct.name.fullName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element {https://build.fhir.org/ig/hl7-eu/unicom-ig/branches/mpd-r5/StructureDefinition/ST}
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.name.namePart</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Name parts</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.name.namePart.inventedName</t>
+  </si>
+  <si>
+    <t>Invented name part</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.name.namePart.strength</t>
+  </si>
+  <si>
+    <t>Strength part</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.name.namePart.doseForm</t>
+  </si>
+  <si>
+    <t>Dose form part</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.name.nameUsage</t>
+  </si>
+  <si>
+    <t>Countries and languages where the name is used</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.name.nameUsage.jurisdiction</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.name.nameUsage.language</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.marketingAuthorisation</t>
+  </si>
+  <si>
+    <t>Marketing Authorisation for the product</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.marketingAuthorisation.marketingAuthorisationNumber</t>
+  </si>
+  <si>
+    <t>Marketing authorisation number</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.marketingAuthorisation.region</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.marketingAuthorisation.marketingAuthorisationStatus</t>
+  </si>
+  <si>
+    <t>Marketing authorisation status</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.marketingAuthorisation.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/DT}
 </t>
   </si>
   <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.name.nameParts</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Name parts</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.name.nameParts.inventedName</t>
-  </si>
-  <si>
-    <t>Invented name part</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.name.nameParts.strength</t>
-  </si>
-  <si>
-    <t>Strength part</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.name.nameParts.doseForm</t>
-  </si>
-  <si>
-    <t>Dose form part</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.name.nameUsage</t>
-  </si>
-  <si>
-    <t>Countries and languages where the name is used</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.name.nameUsage.jurisdiction</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.name.nameUsage.language</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.marketingAuthorization</t>
-  </si>
-  <si>
-    <t>Marketing Authorization(s) for the product</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.marketingAuthorization.marketingAuthorisationNumber</t>
-  </si>
-  <si>
-    <t>Marketing authorisation number</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.marketingAuthorization.region</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.marketingAuthorization.marketingAuthorisationStatus</t>
-  </si>
-  <si>
-    <t>Marketing authorisation status</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.marketingAuthorization.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element {https://build.fhir.org/ig/hl7-eu/unicom-ig/branches/mpd-r5/StructureDefinition/DT}
+    <t>Status date</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.marketingAuthorisation.marketingAuthorisationHolder</t>
+  </si>
+  <si>
+    <t>Marketing authorisation holder</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.marketingAuthorisation.marketingAuthorisationHolder.locationId</t>
+  </si>
+  <si>
+    <t>Location identifier</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.marketingAuthorisation.marketingAuthorisationHolder.organisationId</t>
+  </si>
+  <si>
+    <t>Organization identifier</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.marketingAuthorisation.marketingAuthorisationHolder.mahName</t>
+  </si>
+  <si>
+    <t>Marketing authorisation holder's name</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct</t>
+  </si>
+  <si>
+    <t>Pharmaceutical/administrable product</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.identifier</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.identifier.phpid</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Product ID (PhPID)</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.identifier.nationalId</t>
+  </si>
+  <si>
+    <t>National ID</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.administrableDoseForm</t>
+  </si>
+  <si>
+    <t>Administrable Dose Form</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.unitOfPresentation</t>
+  </si>
+  <si>
+    <t>Unit of presentation</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.routeOfAdministration</t>
+  </si>
+  <si>
+    <t>Route of administration</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.role</t>
+  </si>
+  <si>
+    <t>Ingredient role</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.substance</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.strengthType</t>
+  </si>
+  <si>
+    <t>Strength type (concentration or presentation strength)</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.strength</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.strength.numerator</t>
+  </si>
+  <si>
+    <t>Numerator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.strength.numerator.comparator</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.strength.numerator.value</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.strength.numerator.unit</t>
+  </si>
+  <si>
+    <t>Unit of measurement</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.strength.denominator</t>
+  </si>
+  <si>
+    <t>Denominator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.strength.denominator.value</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.strength.denominator.unit</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength</t>
+  </si>
+  <si>
+    <t>Reference strength</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength.substance</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength.strength</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength.strength.numerator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength.strength.numerator.comparator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength.strength.numerator.value</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength.strength.numerator.unit</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength.strength.denominator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength.strength.denominator.value</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.referenceStrength.strength.denominator.unit</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition</t>
+  </si>
+  <si>
+    <t>Packaged product</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.identifier</t>
+  </si>
+  <si>
+    <t>Package identifier</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.identifier.pcid</t>
+  </si>
+  <si>
+    <t>Packaged medicinal product ID (PCID)</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.identifier.national_id</t>
+  </si>
+  <si>
+    <t>National package identifier</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.description</t>
+  </si>
+  <si>
+    <t>Package description</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.description.language</t>
+  </si>
+  <si>
+    <t>Description language</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.packSize</t>
+  </si>
+  <si>
+    <t>Pack size</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.packSize.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/QT}
 </t>
   </si>
   <si>
-    <t>Status date</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.marketingAuthorization.marketingAuthorisationHolder</t>
-  </si>
-  <si>
-    <t>MAH</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.marketingAuthorization.locationId</t>
-  </si>
-  <si>
-    <t>Location identifier</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.marketingAuthorization.organisationId</t>
-  </si>
-  <si>
-    <t>Organization identifier</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.marketingAuthorization.mahName</t>
-  </si>
-  <si>
-    <t>Marketing authorisation holder's name</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct</t>
-  </si>
-  <si>
-    <t>Pharmaceutical/administrable product</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.identifier</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.phpid</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Product ID (PhPID)</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.nationalId</t>
-  </si>
-  <si>
-    <t>National ID</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.administrableDoseForm</t>
-  </si>
-  <si>
-    <t>Administrable Dose Form</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.unitOfPresentation</t>
-  </si>
-  <si>
-    <t>Unit of Presentation</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.routeOfAdministration</t>
-  </si>
-  <si>
-    <t>Route of administration</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient</t>
-  </si>
-  <si>
-    <t>Ingredient</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.role</t>
-  </si>
-  <si>
-    <t>Ingredient role</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.substance</t>
-  </si>
-  <si>
-    <t>Substance</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.presentationStrength</t>
-  </si>
-  <si>
-    <t>Presentation strength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.presentationStrength.numerator</t>
-  </si>
-  <si>
-    <t>Numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.presentationStrength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>Comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.presentationStrength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.presentationStrength.numerator.unit</t>
+    <t>FullMedicinalProduct.packagedProductDefinition.packSize.unit</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.legalStatusOfSupply</t>
+  </si>
+  <si>
+    <t>Legal status of supply on package level</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation</t>
+  </si>
+  <si>
+    <t>Marketing authorisation on package level</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationNumber</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.region</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationStatus</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.date</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder.locationId</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder.organisationId</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder.mahName</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingStatus</t>
+  </si>
+  <si>
+    <t>Marketing status</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingStatus.country</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.marketingStatus.status</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.packageType</t>
+  </si>
+  <si>
+    <t>Package type</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.quantity</t>
+  </si>
+  <si>
+    <t>Package quantity</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.material</t>
+  </si>
+  <si>
+    <t>Package material</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage</t>
+  </si>
+  <si>
+    <t>Inner Package</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem</t>
+  </si>
+  <si>
+    <t>The content of the inner package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itemcontent-1:containedItem.containedPackage or containedItem.manufacturedItem SHALL be present, but not both {containedPackage.exists() implies manufacturedItem.exists().not()}
+</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.amount</t>
+  </si>
+  <si>
+    <t>Amount of manufacturedItems (solid) or size of the manufactured item (liquid)</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.amount.value</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.amount.unit</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.containedPackage</t>
+  </si>
+  <si>
+    <t>Inner Packages</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem</t>
+  </si>
+  <si>
+    <t>Manufactured item</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.manufacturedDoseForm</t>
+  </si>
+  <si>
+    <t>Manufactured dose form</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.unitOfPresentation</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.role</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.substance</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strengthType</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator.comparator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator.value</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator.unit</t>
   </si>
   <si>
     <t>Unit of Measurement</t>
   </si>
   <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.presentationStrength.denominator</t>
-  </si>
-  <si>
-    <t>Denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.presentationStrength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.presentationStrength.denominator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.concentrationStrength</t>
-  </si>
-  <si>
-    <t>Concentration strength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.concentrationStrength.numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.concentrationStrength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.concentrationStrength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.concentrationStrength.numerator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.concentrationStrength.denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.concentrationStrength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.strength.concentrationStrength.denominator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength</t>
-  </si>
-  <si>
-    <t>Reference Strength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.presentationStrength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.presentationStrength.numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.presentationStrength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.presentationStrength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.presentationStrength.numerator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.presentationStrength.denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.presentationStrength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.presentationStrength.denominator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.presentationStrength.unitOfPresentation</t>
-  </si>
-  <si>
-    <t>Unit of presentation</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.concentrationStrength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.concentrationStrength.numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.concentrationStrength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.concentrationStrength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.concentrationStrength.numerator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.concentrationStrength.denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.concentrationStrength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.pharmaceuticalProduct.ingredient.referenceStrength.concentrationStrength.denominator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition</t>
-  </si>
-  <si>
-    <t>Package Product Definition</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.identifier</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.identifier.pcid</t>
-  </si>
-  <si>
-    <t>Packaged medicinal product ID (PCID)</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.identifier.national_id</t>
-  </si>
-  <si>
-    <t>National identifier</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.description</t>
-  </si>
-  <si>
-    <t>Package Description</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.description.language</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.packageSize</t>
-  </si>
-  <si>
-    <t>Package size</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.packageSize.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element {https://build.fhir.org/ig/hl7-eu/unicom-ig/branches/mpd-r5/StructureDefinition/QT}
-</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.packageSize.unit</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.country</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.packageType</t>
-  </si>
-  <si>
-    <t>Package type</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.quantity</t>
-  </si>
-  <si>
-    <t>Package quantity</t>
-  </si>
-  <si>
-    <t>The quantity of package - always(?) 1</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.material</t>
-  </si>
-  <si>
-    <t>Package material</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage</t>
-  </si>
-  <si>
-    <t>Inner Package</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.amount</t>
-  </si>
-  <si>
-    <t>Amount of inner packages inside the parent package e.g. number of blisters in the box, if this inner package is a blister</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.amount.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.amount.unit</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.innerPackage</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem</t>
-  </si>
-  <si>
-    <t>The content of the inner package</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.amount</t>
-  </si>
-  <si>
-    <t>Amount of manufacturedItems inside the parent package e.g. number of blisters in the box, if this inner package is a blister</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.amount.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.amount.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem</t>
-  </si>
-  <si>
-    <t>ManufacturedItem</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.manufacturedDoseForm</t>
-  </si>
-  <si>
-    <t>Manufactured Dose Form</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.role</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.substance</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.presentationStrength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.presentationStrength.numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.presentationStrength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.presentationStrength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.presentationStrength.numerator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.presentationStrength.denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.presentationStrength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.presentationStrength.denominator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.presentationStrength.unitOfPresentation</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.concentrationStrength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.concentrationStrength.numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.concentrationStrength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.concentrationStrength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.concentrationStrength.numerator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.concentrationStrength.denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.concentrationStrength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.concentrationStrength.denominator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.concentrationStrength.unitOfPresentation</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.presentationStrength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.presentationStrength.numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.presentationStrength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.presentationStrength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.presentationStrength.numerator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.presentationStrength.denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.presentationStrength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.presentationStrength.denominator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.presentationStrength.unitOfPresentation</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.concentrationStrength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.concentrationStrength.numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.concentrationStrength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.concentrationStrength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.concentrationStrength.numerator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.concentrationStrength.denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.concentrationStrength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.concentrationStrength.denominator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packageProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.referenceStrength.concentrationStrength.unitOfPresentation</t>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.denominator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.denominator.value</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.denominator.unit</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.substance</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator.comparator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator.value</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator.unit</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.denominator</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.denominator.value</t>
+  </si>
+  <si>
+    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.denominator.unit</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ138"/>
+  <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1161,7 +1120,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="167.35546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="163.95703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1171,7 +1130,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="115.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.33203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1191,7 +1150,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="167.35546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="163.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1406,12 +1365,12 @@
         <v>69</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1419,10 +1378,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>69</v>
@@ -1434,13 +1393,13 @@
         <v>69</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1491,13 +1450,13 @@
         <v>69</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>69</v>
@@ -1511,7 +1470,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1519,10 +1478,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>69</v>
@@ -1534,13 +1493,13 @@
         <v>69</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1591,13 +1550,13 @@
         <v>69</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>69</v>
@@ -1611,7 +1570,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1622,7 +1581,7 @@
         <v>70</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>69</v>
@@ -1634,13 +1593,13 @@
         <v>69</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1691,13 +1650,13 @@
         <v>69</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>69</v>
@@ -1711,7 +1670,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1719,10 +1678,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>69</v>
@@ -1734,13 +1693,13 @@
         <v>69</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1791,13 +1750,13 @@
         <v>69</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>69</v>
@@ -1811,7 +1770,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1819,10 +1778,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>69</v>
@@ -1834,13 +1793,13 @@
         <v>69</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1891,13 +1850,13 @@
         <v>69</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>69</v>
@@ -1911,7 +1870,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1919,10 +1878,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>69</v>
@@ -1934,13 +1893,13 @@
         <v>69</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1991,13 +1950,13 @@
         <v>69</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>69</v>
@@ -2011,7 +1970,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2019,10 +1978,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>69</v>
@@ -2034,13 +1993,13 @@
         <v>69</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2091,13 +2050,13 @@
         <v>69</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>69</v>
@@ -2111,7 +2070,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2119,7 +2078,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>71</v>
@@ -2134,13 +2093,13 @@
         <v>69</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2191,10 +2150,10 @@
         <v>69</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>71</v>
@@ -2211,7 +2170,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2219,10 +2178,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>69</v>
@@ -2234,13 +2193,13 @@
         <v>69</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2291,13 +2250,13 @@
         <v>69</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>69</v>
@@ -2311,7 +2270,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2322,7 +2281,7 @@
         <v>70</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>69</v>
@@ -2334,7 +2293,7 @@
         <v>69</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>97</v>
@@ -2391,13 +2350,13 @@
         <v>69</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>69</v>
@@ -2419,10 +2378,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>69</v>
@@ -2434,13 +2393,13 @@
         <v>69</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2494,10 +2453,10 @@
         <v>98</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>69</v>
@@ -2511,7 +2470,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2519,10 +2478,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>69</v>
@@ -2534,7 +2493,7 @@
         <v>69</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>101</v>
@@ -2591,13 +2550,13 @@
         <v>69</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>69</v>
@@ -2622,7 +2581,7 @@
         <v>70</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>69</v>
@@ -2634,13 +2593,13 @@
         <v>69</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2697,7 +2656,7 @@
         <v>70</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>69</v>
@@ -2711,7 +2670,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2719,10 +2678,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>69</v>
@@ -2734,13 +2693,13 @@
         <v>69</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2791,13 +2750,13 @@
         <v>69</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>69</v>
@@ -2811,7 +2770,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2819,10 +2778,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>69</v>
@@ -2834,13 +2793,13 @@
         <v>69</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2891,13 +2850,13 @@
         <v>69</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>69</v>
@@ -2911,7 +2870,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2919,10 +2878,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>69</v>
@@ -2934,13 +2893,13 @@
         <v>69</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2991,13 +2950,13 @@
         <v>69</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>69</v>
@@ -3011,7 +2970,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3034,13 +2993,13 @@
         <v>69</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3091,7 +3050,7 @@
         <v>69</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>70</v>
@@ -3111,7 +3070,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3119,10 +3078,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>69</v>
@@ -3134,13 +3093,13 @@
         <v>69</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3191,13 +3150,13 @@
         <v>69</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>69</v>
@@ -3211,7 +3170,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3219,10 +3178,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>69</v>
@@ -3234,13 +3193,13 @@
         <v>69</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3291,13 +3250,13 @@
         <v>69</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>69</v>
@@ -3311,7 +3270,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3319,10 +3278,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>69</v>
@@ -3334,13 +3293,13 @@
         <v>69</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3391,13 +3350,13 @@
         <v>69</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>69</v>
@@ -3411,7 +3370,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3419,10 +3378,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>69</v>
@@ -3434,7 +3393,7 @@
         <v>69</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>120</v>
@@ -3491,13 +3450,13 @@
         <v>69</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>69</v>
@@ -3519,10 +3478,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>69</v>
@@ -3534,7 +3493,7 @@
         <v>69</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>122</v>
@@ -3594,10 +3553,10 @@
         <v>121</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>69</v>
@@ -3619,10 +3578,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>69</v>
@@ -3634,7 +3593,7 @@
         <v>69</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>124</v>
@@ -3694,10 +3653,10 @@
         <v>123</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>69</v>
@@ -3722,7 +3681,7 @@
         <v>70</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>69</v>
@@ -3734,13 +3693,13 @@
         <v>69</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3797,7 +3756,7 @@
         <v>70</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>69</v>
@@ -3811,7 +3770,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3819,10 +3778,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>69</v>
@@ -3834,13 +3793,13 @@
         <v>69</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3891,13 +3850,13 @@
         <v>69</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>69</v>
@@ -3911,7 +3870,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3919,10 +3878,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>69</v>
@@ -3934,13 +3893,13 @@
         <v>69</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3991,13 +3950,13 @@
         <v>69</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>69</v>
@@ -4011,7 +3970,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4022,7 +3981,7 @@
         <v>70</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>69</v>
@@ -4034,13 +3993,13 @@
         <v>69</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4091,13 +4050,13 @@
         <v>69</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>69</v>
@@ -4111,7 +4070,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4119,10 +4078,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>69</v>
@@ -4134,13 +4093,13 @@
         <v>69</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4191,13 +4150,13 @@
         <v>69</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>69</v>
@@ -4211,7 +4170,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4219,7 +4178,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>71</v>
@@ -4234,13 +4193,13 @@
         <v>69</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4291,10 +4250,10 @@
         <v>69</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>71</v>
@@ -4311,7 +4270,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4319,10 +4278,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>69</v>
@@ -4334,13 +4293,13 @@
         <v>69</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4391,13 +4350,13 @@
         <v>69</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>69</v>
@@ -4411,7 +4370,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4419,10 +4378,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>69</v>
@@ -4434,13 +4393,13 @@
         <v>69</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4491,13 +4450,13 @@
         <v>69</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>69</v>
@@ -4511,7 +4470,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4519,10 +4478,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>69</v>
@@ -4534,13 +4493,13 @@
         <v>69</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4591,13 +4550,13 @@
         <v>69</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>69</v>
@@ -4611,7 +4570,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4619,10 +4578,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>69</v>
@@ -4634,13 +4593,13 @@
         <v>69</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4691,13 +4650,13 @@
         <v>69</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>69</v>
@@ -4711,7 +4670,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4719,10 +4678,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>69</v>
@@ -4734,13 +4693,13 @@
         <v>69</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4791,13 +4750,13 @@
         <v>69</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>69</v>
@@ -4811,7 +4770,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4819,10 +4778,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>69</v>
@@ -4834,13 +4793,13 @@
         <v>69</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4891,13 +4850,13 @@
         <v>69</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>69</v>
@@ -4911,7 +4870,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4919,7 +4878,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>71</v>
@@ -4934,13 +4893,13 @@
         <v>69</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4991,10 +4950,10 @@
         <v>69</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>71</v>
@@ -5011,7 +4970,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5019,10 +4978,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>69</v>
@@ -5034,13 +4993,13 @@
         <v>69</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5091,13 +5050,13 @@
         <v>69</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>69</v>
@@ -5111,7 +5070,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5119,10 +5078,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>69</v>
@@ -5134,13 +5093,13 @@
         <v>69</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5191,13 +5150,13 @@
         <v>69</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>69</v>
@@ -5211,7 +5170,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5219,10 +5178,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>69</v>
@@ -5234,13 +5193,13 @@
         <v>69</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5291,13 +5250,13 @@
         <v>69</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>69</v>
@@ -5311,7 +5270,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5319,10 +5278,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>69</v>
@@ -5334,13 +5293,13 @@
         <v>69</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5391,13 +5350,13 @@
         <v>69</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>69</v>
@@ -5411,7 +5370,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5419,10 +5378,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>69</v>
@@ -5434,13 +5393,13 @@
         <v>69</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5491,13 +5450,13 @@
         <v>69</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>69</v>
@@ -5511,7 +5470,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5519,10 +5478,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>69</v>
@@ -5534,13 +5493,13 @@
         <v>69</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5591,13 +5550,13 @@
         <v>69</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>69</v>
@@ -5611,7 +5570,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5619,10 +5578,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>69</v>
@@ -5634,13 +5593,13 @@
         <v>69</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5691,13 +5650,13 @@
         <v>69</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>69</v>
@@ -5711,7 +5670,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5719,10 +5678,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>69</v>
@@ -5734,13 +5693,13 @@
         <v>69</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5791,13 +5750,13 @@
         <v>69</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>69</v>
@@ -5811,7 +5770,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5819,10 +5778,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>69</v>
@@ -5834,13 +5793,13 @@
         <v>69</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5891,13 +5850,13 @@
         <v>69</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>69</v>
@@ -5911,7 +5870,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5919,10 +5878,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>69</v>
@@ -5934,13 +5893,13 @@
         <v>69</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5991,13 +5950,13 @@
         <v>69</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>69</v>
@@ -6011,7 +5970,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6019,10 +5978,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>69</v>
@@ -6034,13 +5993,13 @@
         <v>69</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6091,13 +6050,13 @@
         <v>69</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>69</v>
@@ -6111,7 +6070,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6119,10 +6078,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>69</v>
@@ -6134,13 +6093,13 @@
         <v>69</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6191,13 +6150,13 @@
         <v>69</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>69</v>
@@ -6211,7 +6170,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6219,10 +6178,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>69</v>
@@ -6234,13 +6193,13 @@
         <v>69</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6291,13 +6250,13 @@
         <v>69</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>69</v>
@@ -6311,7 +6270,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6319,10 +6278,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>69</v>
@@ -6334,13 +6293,13 @@
         <v>69</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6391,13 +6350,13 @@
         <v>69</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>69</v>
@@ -6411,7 +6370,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6419,10 +6378,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>69</v>
@@ -6434,13 +6393,13 @@
         <v>69</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6491,13 +6450,13 @@
         <v>69</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>69</v>
@@ -6511,7 +6470,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6519,10 +6478,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>69</v>
@@ -6534,13 +6493,13 @@
         <v>69</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6591,13 +6550,13 @@
         <v>69</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>69</v>
@@ -6611,7 +6570,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6619,10 +6578,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>69</v>
@@ -6634,13 +6593,13 @@
         <v>69</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6691,13 +6650,13 @@
         <v>69</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>69</v>
@@ -6711,7 +6670,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6719,10 +6678,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>69</v>
@@ -6734,13 +6693,13 @@
         <v>69</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6791,13 +6750,13 @@
         <v>69</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>69</v>
@@ -6811,7 +6770,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6819,10 +6778,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>69</v>
@@ -6834,13 +6793,13 @@
         <v>69</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6891,13 +6850,13 @@
         <v>69</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>69</v>
@@ -6911,7 +6870,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6919,10 +6878,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>69</v>
@@ -6934,13 +6893,13 @@
         <v>69</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6991,13 +6950,13 @@
         <v>69</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>69</v>
@@ -7011,7 +6970,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7019,10 +6978,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>69</v>
@@ -7034,7 +6993,7 @@
         <v>69</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>1</v>
@@ -7091,13 +7050,13 @@
         <v>69</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>69</v>
@@ -7111,7 +7070,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7119,10 +7078,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>69</v>
@@ -7134,13 +7093,13 @@
         <v>69</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7191,13 +7150,13 @@
         <v>69</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>69</v>
@@ -7211,7 +7170,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7219,10 +7178,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>69</v>
@@ -7234,13 +7193,13 @@
         <v>69</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7291,13 +7250,13 @@
         <v>69</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>69</v>
@@ -7311,7 +7270,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7319,10 +7278,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>69</v>
@@ -7334,13 +7293,13 @@
         <v>69</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7391,13 +7350,13 @@
         <v>69</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>69</v>
@@ -7411,7 +7370,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7419,10 +7378,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>69</v>
@@ -7434,13 +7393,13 @@
         <v>69</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7491,13 +7450,13 @@
         <v>69</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>69</v>
@@ -7511,7 +7470,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7522,7 +7481,7 @@
         <v>70</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>69</v>
@@ -7534,13 +7493,13 @@
         <v>69</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7591,13 +7550,13 @@
         <v>69</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>69</v>
@@ -7611,7 +7570,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7622,7 +7581,7 @@
         <v>70</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>69</v>
@@ -7634,13 +7593,13 @@
         <v>69</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7691,13 +7650,13 @@
         <v>69</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>69</v>
@@ -7711,7 +7670,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7719,10 +7678,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>69</v>
@@ -7734,13 +7693,13 @@
         <v>69</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7791,13 +7750,13 @@
         <v>69</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>69</v>
@@ -7811,7 +7770,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7819,10 +7778,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>69</v>
@@ -7834,13 +7793,13 @@
         <v>69</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7891,13 +7850,13 @@
         <v>69</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>69</v>
@@ -7911,7 +7870,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7919,10 +7878,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>69</v>
@@ -7934,7 +7893,7 @@
         <v>69</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>1</v>
@@ -7991,13 +7950,13 @@
         <v>69</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>69</v>
@@ -8011,7 +7970,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8019,10 +7978,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>69</v>
@@ -8034,13 +7993,13 @@
         <v>69</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8091,13 +8050,13 @@
         <v>69</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>69</v>
@@ -8111,7 +8070,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8119,10 +8078,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>69</v>
@@ -8134,13 +8093,13 @@
         <v>69</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8191,13 +8150,13 @@
         <v>69</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>69</v>
@@ -8211,7 +8170,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8219,10 +8178,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>69</v>
@@ -8234,13 +8193,13 @@
         <v>69</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8291,13 +8250,13 @@
         <v>69</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>69</v>
@@ -8311,7 +8270,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8319,10 +8278,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>69</v>
@@ -8334,13 +8293,13 @@
         <v>69</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8391,13 +8350,13 @@
         <v>69</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>69</v>
@@ -8411,7 +8370,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8419,10 +8378,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>69</v>
@@ -8434,13 +8393,13 @@
         <v>69</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8491,13 +8450,13 @@
         <v>69</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>69</v>
@@ -8511,7 +8470,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8519,10 +8478,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>69</v>
@@ -8534,13 +8493,13 @@
         <v>69</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8591,13 +8550,13 @@
         <v>69</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>69</v>
@@ -8611,7 +8570,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8619,10 +8578,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>69</v>
@@ -8634,13 +8593,13 @@
         <v>69</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8691,13 +8650,13 @@
         <v>69</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>69</v>
@@ -8711,7 +8670,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8719,10 +8678,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>69</v>
@@ -8734,13 +8693,13 @@
         <v>69</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8791,13 +8750,13 @@
         <v>69</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>69</v>
@@ -8811,7 +8770,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -8819,10 +8778,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>69</v>
@@ -8834,13 +8793,13 @@
         <v>69</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -8891,13 +8850,13 @@
         <v>69</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>69</v>
@@ -8911,7 +8870,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8922,7 +8881,7 @@
         <v>70</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>69</v>
@@ -8934,13 +8893,13 @@
         <v>69</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -8991,13 +8950,13 @@
         <v>69</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>69</v>
@@ -9011,7 +8970,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9019,10 +8978,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>69</v>
@@ -9034,13 +8993,13 @@
         <v>69</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9091,13 +9050,13 @@
         <v>69</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>69</v>
@@ -9111,7 +9070,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9119,10 +9078,10 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>69</v>
@@ -9134,13 +9093,13 @@
         <v>69</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9191,13 +9150,13 @@
         <v>69</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>69</v>
@@ -9211,7 +9170,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9219,10 +9178,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>69</v>
@@ -9234,13 +9193,13 @@
         <v>69</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9291,13 +9250,13 @@
         <v>69</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>69</v>
@@ -9311,7 +9270,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9319,10 +9278,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>69</v>
@@ -9334,13 +9293,13 @@
         <v>69</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9391,13 +9350,13 @@
         <v>69</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>69</v>
@@ -9411,7 +9370,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9419,10 +9378,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>69</v>
@@ -9434,13 +9393,13 @@
         <v>69</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -9491,13 +9450,13 @@
         <v>69</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>69</v>
@@ -9511,7 +9470,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9519,10 +9478,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>69</v>
@@ -9534,13 +9493,13 @@
         <v>69</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -9591,13 +9550,13 @@
         <v>69</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>69</v>
@@ -9611,7 +9570,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9619,10 +9578,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>69</v>
@@ -9634,13 +9593,13 @@
         <v>69</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -9691,13 +9650,13 @@
         <v>69</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>69</v>
@@ -9711,7 +9670,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -9734,13 +9693,13 @@
         <v>69</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -9791,7 +9750,7 @@
         <v>69</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>70</v>
@@ -9811,7 +9770,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -9834,13 +9793,13 @@
         <v>69</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -9891,7 +9850,7 @@
         <v>69</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>70</v>
@@ -9911,7 +9870,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -9919,10 +9878,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>69</v>
@@ -9934,13 +9893,13 @@
         <v>69</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -9991,19 +9950,19 @@
         <v>69</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>69</v>
@@ -10011,7 +9970,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10019,10 +9978,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>69</v>
@@ -10034,13 +9993,13 @@
         <v>69</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -10091,13 +10050,13 @@
         <v>69</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>69</v>
@@ -10111,7 +10070,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10119,10 +10078,10 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>69</v>
@@ -10134,13 +10093,13 @@
         <v>69</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -10191,13 +10150,13 @@
         <v>69</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>69</v>
@@ -10211,7 +10170,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10222,7 +10181,7 @@
         <v>70</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>69</v>
@@ -10234,13 +10193,13 @@
         <v>69</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -10291,13 +10250,13 @@
         <v>69</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>69</v>
@@ -10311,7 +10270,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10334,13 +10293,13 @@
         <v>69</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -10391,7 +10350,7 @@
         <v>69</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>70</v>
@@ -10411,7 +10370,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10419,10 +10378,10 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>69</v>
@@ -10434,13 +10393,13 @@
         <v>69</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -10491,13 +10450,13 @@
         <v>69</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>69</v>
@@ -10511,7 +10470,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -10519,10 +10478,10 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>69</v>
@@ -10534,13 +10493,13 @@
         <v>69</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -10591,13 +10550,13 @@
         <v>69</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>69</v>
@@ -10611,7 +10570,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -10619,10 +10578,10 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>69</v>
@@ -10634,13 +10593,13 @@
         <v>69</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -10691,13 +10650,13 @@
         <v>69</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>69</v>
@@ -10711,7 +10670,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -10719,7 +10678,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>71</v>
@@ -10734,13 +10693,13 @@
         <v>69</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -10791,10 +10750,10 @@
         <v>69</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>71</v>
@@ -10811,7 +10770,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -10819,10 +10778,10 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>69</v>
@@ -10834,13 +10793,13 @@
         <v>69</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -10891,13 +10850,13 @@
         <v>69</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>69</v>
@@ -10911,7 +10870,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -10919,10 +10878,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>69</v>
@@ -10934,13 +10893,13 @@
         <v>69</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -10991,13 +10950,13 @@
         <v>69</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>69</v>
@@ -11011,7 +10970,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11019,10 +10978,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>69</v>
@@ -11034,13 +10993,13 @@
         <v>69</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -11091,13 +11050,13 @@
         <v>69</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>69</v>
@@ -11111,7 +11070,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -11119,10 +11078,10 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>69</v>
@@ -11134,13 +11093,13 @@
         <v>69</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -11191,13 +11150,13 @@
         <v>69</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>69</v>
@@ -11211,7 +11170,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -11219,10 +11178,10 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>69</v>
@@ -11234,13 +11193,13 @@
         <v>69</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -11291,13 +11250,13 @@
         <v>69</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>69</v>
@@ -11311,7 +11270,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11319,10 +11278,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>69</v>
@@ -11334,13 +11293,13 @@
         <v>69</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -11391,13 +11350,13 @@
         <v>69</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>69</v>
@@ -11411,7 +11370,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -11419,10 +11378,10 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>69</v>
@@ -11434,13 +11393,13 @@
         <v>69</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -11491,13 +11450,13 @@
         <v>69</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>69</v>
@@ -11511,7 +11470,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -11519,10 +11478,10 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>69</v>
@@ -11534,13 +11493,13 @@
         <v>69</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -11591,13 +11550,13 @@
         <v>69</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>69</v>
@@ -11611,7 +11570,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -11619,10 +11578,10 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>69</v>
@@ -11634,13 +11593,13 @@
         <v>69</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -11691,13 +11650,13 @@
         <v>69</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>69</v>
@@ -11711,7 +11670,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -11719,10 +11678,10 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>69</v>
@@ -11734,13 +11693,13 @@
         <v>69</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -11791,13 +11750,13 @@
         <v>69</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>69</v>
@@ -11811,7 +11770,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -11819,10 +11778,10 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>69</v>
@@ -11834,13 +11793,13 @@
         <v>69</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -11891,13 +11850,13 @@
         <v>69</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>69</v>
@@ -11911,7 +11870,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -11919,10 +11878,10 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>69</v>
@@ -11934,13 +11893,13 @@
         <v>69</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -11991,13 +11950,13 @@
         <v>69</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>69</v>
@@ -12011,7 +11970,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -12019,10 +11978,10 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>69</v>
@@ -12034,13 +11993,13 @@
         <v>69</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -12091,13 +12050,13 @@
         <v>69</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>69</v>
@@ -12111,7 +12070,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -12119,10 +12078,10 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>69</v>
@@ -12134,13 +12093,13 @@
         <v>69</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -12191,13 +12150,13 @@
         <v>69</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>69</v>
@@ -12211,7 +12170,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -12219,10 +12178,10 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>69</v>
@@ -12234,13 +12193,13 @@
         <v>69</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -12291,13 +12250,13 @@
         <v>69</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>69</v>
@@ -12311,7 +12270,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -12319,10 +12278,10 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>69</v>
@@ -12334,13 +12293,13 @@
         <v>69</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -12391,13 +12350,13 @@
         <v>69</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>69</v>
@@ -12411,7 +12370,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -12419,10 +12378,10 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>69</v>
@@ -12434,13 +12393,13 @@
         <v>69</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -12491,13 +12450,13 @@
         <v>69</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>69</v>
@@ -12511,7 +12470,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -12519,10 +12478,10 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>69</v>
@@ -12534,7 +12493,7 @@
         <v>69</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>1</v>
@@ -12591,13 +12550,13 @@
         <v>69</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>69</v>
@@ -12611,7 +12570,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -12619,10 +12578,10 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>69</v>
@@ -12634,13 +12593,13 @@
         <v>69</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -12691,13 +12650,13 @@
         <v>69</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>69</v>
@@ -12711,7 +12670,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -12719,10 +12678,10 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>69</v>
@@ -12734,13 +12693,13 @@
         <v>69</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -12791,13 +12750,13 @@
         <v>69</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>69</v>
@@ -12811,7 +12770,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -12819,10 +12778,10 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>69</v>
@@ -12834,7 +12793,7 @@
         <v>69</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>1</v>
@@ -12891,13 +12850,13 @@
         <v>69</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>69</v>
@@ -12911,7 +12870,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -12919,10 +12878,10 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>69</v>
@@ -12934,13 +12893,13 @@
         <v>69</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -12991,13 +12950,13 @@
         <v>69</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>69</v>
@@ -13006,2006 +12965,6 @@
         <v>69</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P137" s="2"/>
-      <c r="Q137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
         <v>69</v>
       </c>
     </row>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:00:19+00:00</t>
+    <t>2022-10-21T23:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:01:56+00:00</t>
+    <t>2022-10-21T23:10:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:10:36+00:00</t>
+    <t>2022-10-21T23:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:24:13+00:00</t>
+    <t>2022-10-23T08:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:50:48+00:00</t>
+    <t>2022-10-23T08:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:58:51+00:00</t>
+    <t>2022-10-23T18:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T14:07:58+00:00</t>
+    <t>2022-11-05T15:30:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>75</v>
@@ -9750,7 +9750,7 @@
         <v>195</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T22:26:11+00:00</t>
+    <t>2022-11-07T21:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/FullMedicinalProduct</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/FullMedicinalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T20:50:12+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -243,7 +243,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {http://unicom-project.eu/fhir/StructureDefinition/class}
+    <t xml:space="preserve">BackboneElement {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/class}
 </t>
   </si>
   <si>
@@ -336,7 +336,7 @@
     <t>FullMedicinalProduct.identifier.mpId</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/II}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/II}
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>FullMedicinalProduct.domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/CD}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/CD}
 </t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>FullMedicinalProduct.name.fullName</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/ST}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/ST}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>FullMedicinalProduct.marketingAuthorisation.date</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/DT}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/DT}
 </t>
   </si>
   <si>
@@ -889,7 +889,7 @@
     <t>FullMedicinalProduct.packagedProductDefinition.packSize.value</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {http://unicom-project.eu/fhir/StructureDefinition/QT}
+    <t xml:space="preserve">Element {https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/QT}
 </t>
   </si>
   <si>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7442" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="340">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T15:50:31+00:00</t>
+    <t>2022-11-11T20:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -905,49 +905,7 @@
     <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation</t>
   </si>
   <si>
-    <t>Marketing authorisation on package level</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationNumber</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.region</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationStatus</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.date</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder.locationId</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder.organisationId</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.marketingAuthorisation.marketingAuthorisationHolder.mahName</t>
+    <t>MarketingAuthorisation</t>
   </si>
   <si>
     <t>FullMedicinalProduct.packagedProductDefinition.marketingStatus</t>
@@ -1090,156 +1048,6 @@
   </si>
   <si>
     <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.role</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.substance</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strengthType</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.numerator.unit</t>
-  </si>
-  <si>
-    <t>Unit of Measurement</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.denominator.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.denominator.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.denominator.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.strength.denominator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.substance</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator.comparator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.numerator.unit</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.denominator</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.denominator.id</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.denominator.extension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.denominator.modifierExtension</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.denominator.value</t>
-  </si>
-  <si>
-    <t>FullMedicinalProduct.packagedProductDefinition.package.innerPackage.containedItem.manufacturedItem.ingredient.strength.referenceStrength.strength.denominator.unit</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ235"/>
+  <dimension ref="A1:AJ172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1545,7 +1353,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="171.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="121.19921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1575,7 +1383,7 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="163.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="121.19921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -15350,7 +15158,7 @@
         <v>69</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>292</v>
@@ -15419,7 +15227,7 @@
         <v>69</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>69</v>
@@ -15438,7 +15246,7 @@
         <v>70</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>69</v>
@@ -15450,13 +15258,13 @@
         <v>69</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -15507,38 +15315,38 @@
         <v>69</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>69</v>
@@ -15550,17 +15358,15 @@
         <v>69</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>69</v>
@@ -15597,31 +15403,31 @@
         <v>69</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AB139" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AC139" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD139" t="s" s="2">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>73</v>
@@ -15629,11 +15435,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -15646,26 +15452,24 @@
         <v>69</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N140" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>69</v>
       </c>
@@ -15701,19 +15505,19 @@
         <v>69</v>
       </c>
       <c r="AA140" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="AC140" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD140" t="s" s="2">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>70</v>
@@ -15728,20 +15532,20 @@
         <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>71</v>
@@ -15750,22 +15554,26 @@
         <v>69</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O141" t="s" s="2">
         <v>69</v>
       </c>
@@ -15813,10 +15621,10 @@
         <v>69</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>71</v>
@@ -15825,15 +15633,15 @@
         <v>69</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -15859,10 +15667,10 @@
         <v>111</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -15913,7 +15721,7 @@
         <v>69</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
@@ -15933,7 +15741,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -15959,10 +15767,10 @@
         <v>111</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -16013,7 +15821,7 @@
         <v>69</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
@@ -16033,7 +15841,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -16041,7 +15849,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>75</v>
@@ -16056,13 +15864,13 @@
         <v>69</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>167</v>
+        <v>301</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>167</v>
+        <v>301</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -16113,10 +15921,10 @@
         <v>69</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>75</v>
@@ -16125,7 +15933,7 @@
         <v>69</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>69</v>
@@ -16133,7 +15941,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -16141,7 +15949,7 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F145" t="s" s="2">
         <v>75</v>
@@ -16156,13 +15964,13 @@
         <v>69</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -16213,10 +16021,10 @@
         <v>69</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>75</v>
@@ -16225,26 +16033,26 @@
         <v>69</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>69</v>
@@ -16256,15 +16064,17 @@
         <v>69</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M146" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>69</v>
@@ -16301,31 +16111,31 @@
         <v>69</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AB146" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="AC146" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD146" t="s" s="2">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>73</v>
@@ -16333,11 +16143,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -16350,24 +16160,26 @@
         <v>69</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J147" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M147" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N147" s="2"/>
+      <c r="N147" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O147" t="s" s="2">
         <v>69</v>
       </c>
@@ -16403,19 +16215,19 @@
         <v>69</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AB147" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AC147" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD147" t="s" s="2">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>70</v>
@@ -16430,48 +16242,44 @@
         <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>69</v>
       </c>
@@ -16519,27 +16327,27 @@
         <v>69</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -16562,13 +16370,13 @@
         <v>69</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>174</v>
+        <v>308</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>174</v>
+        <v>308</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -16619,7 +16427,7 @@
         <v>69</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>75</v>
@@ -16639,7 +16447,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -16650,7 +16458,7 @@
         <v>70</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>69</v>
@@ -16662,13 +16470,13 @@
         <v>69</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -16719,13 +16527,13 @@
         <v>69</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>69</v>
@@ -16739,7 +16547,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -16747,10 +16555,10 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>69</v>
@@ -16762,13 +16570,13 @@
         <v>69</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -16819,19 +16627,19 @@
         <v>69</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>69</v>
@@ -16839,7 +16647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -16850,7 +16658,7 @@
         <v>70</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>69</v>
@@ -16862,13 +16670,13 @@
         <v>69</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -16919,38 +16727,38 @@
         <v>69</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>69</v>
@@ -16962,15 +16770,17 @@
         <v>69</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M153" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>69</v>
@@ -17007,31 +16817,31 @@
         <v>69</v>
       </c>
       <c r="AA153" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="AC153" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>73</v>
@@ -17039,11 +16849,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -17056,24 +16866,26 @@
         <v>69</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J154" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N154" s="2"/>
+      <c r="N154" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>69</v>
       </c>
@@ -17109,19 +16921,19 @@
         <v>69</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AC154" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD154" t="s" s="2">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>70</v>
@@ -17136,16 +16948,16 @@
         <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -17158,26 +16970,22 @@
         <v>69</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>69</v>
       </c>
@@ -17225,7 +17033,7 @@
         <v>69</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>70</v>
@@ -17237,15 +17045,15 @@
         <v>69</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -17253,7 +17061,7 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F156" t="s" s="2">
         <v>75</v>
@@ -17268,13 +17076,13 @@
         <v>69</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -17325,10 +17133,10 @@
         <v>69</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>75</v>
@@ -17340,23 +17148,23 @@
         <v>69</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>69</v>
@@ -17368,15 +17176,17 @@
         <v>69</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="M157" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>69</v>
@@ -17413,71 +17223,75 @@
         <v>69</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AB157" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="AC157" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>313</v>
+        <v>93</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>315</v>
+        <v>98</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O158" t="s" s="2">
         <v>69</v>
       </c>
@@ -17525,27 +17339,27 @@
         <v>69</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -17553,7 +17367,7 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F159" t="s" s="2">
         <v>75</v>
@@ -17568,13 +17382,13 @@
         <v>69</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -17625,10 +17439,10 @@
         <v>69</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>75</v>
@@ -17637,26 +17451,26 @@
         <v>69</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>69</v>
@@ -17668,17 +17482,15 @@
         <v>69</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>69</v>
@@ -17715,31 +17527,31 @@
         <v>69</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AC160" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>73</v>
@@ -17747,11 +17559,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -17764,26 +17576,24 @@
         <v>69</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N161" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>69</v>
       </c>
@@ -17819,19 +17629,19 @@
         <v>69</v>
       </c>
       <c r="AA161" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AB161" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="AC161" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD161" t="s" s="2">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>70</v>
@@ -17846,44 +17656,48 @@
         <v>94</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O162" t="s" s="2">
         <v>69</v>
       </c>
@@ -17931,27 +17745,27 @@
         <v>69</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -17977,10 +17791,10 @@
         <v>287</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>322</v>
+        <v>1</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>322</v>
+        <v>1</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -18031,7 +17845,7 @@
         <v>69</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
@@ -18051,7 +17865,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -18062,7 +17876,7 @@
         <v>70</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>69</v>
@@ -18077,10 +17891,10 @@
         <v>111</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -18131,13 +17945,13 @@
         <v>69</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>69</v>
@@ -18151,7 +17965,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -18174,13 +17988,13 @@
         <v>69</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -18231,7 +18045,7 @@
         <v>69</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>70</v>
@@ -18243,7 +18057,7 @@
         <v>69</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>69</v>
@@ -18251,7 +18065,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -18259,10 +18073,10 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>69</v>
@@ -18274,13 +18088,13 @@
         <v>69</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -18331,38 +18145,38 @@
         <v>69</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>69</v>
@@ -18374,17 +18188,15 @@
         <v>69</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
         <v>69</v>
@@ -18421,31 +18233,31 @@
         <v>69</v>
       </c>
       <c r="AA167" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AB167" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AC167" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>73</v>
@@ -18453,11 +18265,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -18470,26 +18282,24 @@
         <v>69</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M168" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N168" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>69</v>
       </c>
@@ -18525,19 +18335,19 @@
         <v>69</v>
       </c>
       <c r="AA168" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="AC168" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD168" t="s" s="2">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>70</v>
@@ -18552,16 +18362,16 @@
         <v>94</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -18574,22 +18384,26 @@
         <v>69</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>331</v>
+        <v>98</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O169" t="s" s="2">
         <v>69</v>
       </c>
@@ -18637,7 +18451,7 @@
         <v>69</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>330</v>
+        <v>101</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>70</v>
@@ -18649,15 +18463,15 @@
         <v>69</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -18665,7 +18479,7 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>75</v>
@@ -18680,13 +18494,13 @@
         <v>69</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -18737,10 +18551,10 @@
         <v>69</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>75</v>
@@ -18752,23 +18566,23 @@
         <v>69</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>69</v>
@@ -18780,17 +18594,15 @@
         <v>69</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
         <v>69</v>
@@ -18827,47 +18639,47 @@
         <v>69</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AB171" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AC171" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>93</v>
+        <v>338</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>71</v>
@@ -18876,26 +18688,22 @@
         <v>69</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
         <v>69</v>
       </c>
@@ -18943,10 +18751,10 @@
         <v>69</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>101</v>
+        <v>339</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>71</v>
@@ -18955,6375 +18763,9 @@
         <v>69</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P173" s="2"/>
-      <c r="Q173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B174" s="2"/>
-      <c r="C174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P174" s="2"/>
-      <c r="Q174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F175" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N175" s="2"/>
-      <c r="O175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P175" s="2"/>
-      <c r="Q175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F176" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P177" s="2"/>
-      <c r="Q177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B178" s="2"/>
-      <c r="C178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P178" s="2"/>
-      <c r="Q178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F179" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K179" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P179" s="2"/>
-      <c r="Q179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B180" s="2"/>
-      <c r="C180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F180" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J180" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K180" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P180" s="2"/>
-      <c r="Q180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI180" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P181" s="2"/>
-      <c r="Q181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B182" s="2"/>
-      <c r="C182" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F182" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N182" s="2"/>
-      <c r="O182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P182" s="2"/>
-      <c r="Q182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F183" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J183" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P183" s="2"/>
-      <c r="Q183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG183" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH183" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B184" s="2"/>
-      <c r="C184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D184" s="2"/>
-      <c r="E184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J184" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P184" s="2"/>
-      <c r="Q184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B185" s="2"/>
-      <c r="C185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J185" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
-      <c r="O185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P185" s="2"/>
-      <c r="Q185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE185" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F186" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P186" s="2"/>
-      <c r="Q186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B187" s="2"/>
-      <c r="C187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J187" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P187" s="2"/>
-      <c r="Q187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F188" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N188" s="2"/>
-      <c r="O188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P188" s="2"/>
-      <c r="Q188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P189" s="2"/>
-      <c r="Q189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P190" s="2"/>
-      <c r="Q190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P191" s="2"/>
-      <c r="Q191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F192" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
-      <c r="O192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P192" s="2"/>
-      <c r="Q192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH192" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI192" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ192" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J193" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P193" s="2"/>
-      <c r="Q193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B194" s="2"/>
-      <c r="C194" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D194" s="2"/>
-      <c r="E194" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F194" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J194" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N194" s="2"/>
-      <c r="O194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P194" s="2"/>
-      <c r="Q194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA194" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB194" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD194" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE194" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF194" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG194" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH194" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI194" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ194" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B195" s="2"/>
-      <c r="C195" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F195" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H195" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I195" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J195" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K195" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P195" s="2"/>
-      <c r="Q195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE195" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF195" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG195" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH195" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI195" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ195" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B196" s="2"/>
-      <c r="C196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D196" s="2"/>
-      <c r="E196" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F196" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J196" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K196" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P196" s="2"/>
-      <c r="Q196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI196" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ196" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B197" s="2"/>
-      <c r="C197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F197" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J197" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K197" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
-      <c r="O197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P197" s="2"/>
-      <c r="Q197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE197" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AF197" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG197" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH197" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI197" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ197" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B198" s="2"/>
-      <c r="C198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D198" s="2"/>
-      <c r="E198" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F198" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J198" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K198" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
-      <c r="O198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P198" s="2"/>
-      <c r="Q198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG198" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI198" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ198" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F199" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J199" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K199" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N199" s="2"/>
-      <c r="O199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P199" s="2"/>
-      <c r="Q199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA199" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB199" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD199" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE199" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF199" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG199" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH199" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI199" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ199" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B200" s="2"/>
-      <c r="C200" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F200" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H200" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I200" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J200" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K200" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P200" s="2"/>
-      <c r="Q200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF200" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG200" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH200" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI200" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ200" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F201" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J201" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K201" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P201" s="2"/>
-      <c r="Q201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH201" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI201" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ201" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B202" s="2"/>
-      <c r="C202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D202" s="2"/>
-      <c r="E202" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F202" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J202" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K202" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P202" s="2"/>
-      <c r="Q202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI202" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ202" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D203" s="2"/>
-      <c r="E203" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F203" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J203" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K203" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N203" s="2"/>
-      <c r="O203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P203" s="2"/>
-      <c r="Q203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF203" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG203" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH203" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI203" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ203" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B204" s="2"/>
-      <c r="C204" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D204" s="2"/>
-      <c r="E204" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F204" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H204" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I204" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J204" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K204" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P204" s="2"/>
-      <c r="Q204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG204" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH204" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI204" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ204" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F205" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J205" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K205" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P205" s="2"/>
-      <c r="Q205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE205" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AF205" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG205" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI205" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ205" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B206" s="2"/>
-      <c r="C206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F206" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J206" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K206" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
-      <c r="O206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P206" s="2"/>
-      <c r="Q206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE206" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF206" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG206" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI206" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ206" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F207" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J207" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K207" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P207" s="2"/>
-      <c r="Q207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE207" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF207" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG207" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI207" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ207" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D208" s="2"/>
-      <c r="E208" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F208" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J208" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K208" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
-      <c r="O208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P208" s="2"/>
-      <c r="Q208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG208" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH208" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI208" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ208" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B209" s="2"/>
-      <c r="C209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D209" s="2"/>
-      <c r="E209" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F209" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K209" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L209" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P209" s="2"/>
-      <c r="Q209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE209" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF209" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG209" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI209" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ209" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B210" s="2"/>
-      <c r="C210" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D210" s="2"/>
-      <c r="E210" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F210" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J210" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K210" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N210" s="2"/>
-      <c r="O210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P210" s="2"/>
-      <c r="Q210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA210" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB210" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD210" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE210" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF210" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG210" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH210" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI210" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ210" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B211" s="2"/>
-      <c r="C211" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D211" s="2"/>
-      <c r="E211" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F211" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H211" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I211" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J211" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K211" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M211" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P211" s="2"/>
-      <c r="Q211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE211" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF211" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG211" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH211" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI211" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ211" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B212" s="2"/>
-      <c r="C212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D212" s="2"/>
-      <c r="E212" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F212" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J212" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K212" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P212" s="2"/>
-      <c r="Q212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE212" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF212" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG212" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI212" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ212" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B213" s="2"/>
-      <c r="C213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D213" s="2"/>
-      <c r="E213" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F213" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J213" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K213" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P213" s="2"/>
-      <c r="Q213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE213" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF213" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG213" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI213" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ213" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B214" s="2"/>
-      <c r="C214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D214" s="2"/>
-      <c r="E214" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F214" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J214" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K214" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P214" s="2"/>
-      <c r="Q214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE214" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF214" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG214" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH214" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI214" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ214" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B215" s="2"/>
-      <c r="C215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D215" s="2"/>
-      <c r="E215" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F215" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J215" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K215" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P215" s="2"/>
-      <c r="Q215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE215" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF215" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG215" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI215" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ215" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B216" s="2"/>
-      <c r="C216" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D216" s="2"/>
-      <c r="E216" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F216" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J216" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K216" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N216" s="2"/>
-      <c r="O216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P216" s="2"/>
-      <c r="Q216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA216" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB216" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD216" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE216" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF216" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG216" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH216" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI216" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ216" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D217" s="2"/>
-      <c r="E217" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F217" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H217" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I217" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J217" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K217" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P217" s="2"/>
-      <c r="Q217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE217" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF217" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG217" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH217" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI217" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ217" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D218" s="2"/>
-      <c r="E218" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F218" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J218" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K218" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L218" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P218" s="2"/>
-      <c r="Q218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE218" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF218" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG218" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI218" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ218" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D219" s="2"/>
-      <c r="E219" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F219" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J219" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K219" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
-      <c r="O219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P219" s="2"/>
-      <c r="Q219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE219" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AF219" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG219" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH219" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ219" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D220" s="2"/>
-      <c r="E220" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F220" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P220" s="2"/>
-      <c r="Q220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE220" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF220" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG220" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI220" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ220" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B221" s="2"/>
-      <c r="C221" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D221" s="2"/>
-      <c r="E221" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F221" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J221" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K221" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N221" s="2"/>
-      <c r="O221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P221" s="2"/>
-      <c r="Q221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA221" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB221" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD221" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE221" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF221" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG221" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH221" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI221" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ221" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B222" s="2"/>
-      <c r="C222" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D222" s="2"/>
-      <c r="E222" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F222" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H222" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I222" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J222" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K222" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P222" s="2"/>
-      <c r="Q222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE222" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF222" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG222" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH222" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI222" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ222" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B223" s="2"/>
-      <c r="C223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D223" s="2"/>
-      <c r="E223" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F223" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J223" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K223" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P223" s="2"/>
-      <c r="Q223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE223" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AF223" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG223" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH223" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI223" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ223" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B224" s="2"/>
-      <c r="C224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D224" s="2"/>
-      <c r="E224" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F224" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J224" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K224" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P224" s="2"/>
-      <c r="Q224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE224" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF224" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG224" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI224" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ224" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B225" s="2"/>
-      <c r="C225" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D225" s="2"/>
-      <c r="E225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F225" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J225" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K225" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N225" s="2"/>
-      <c r="O225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P225" s="2"/>
-      <c r="Q225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA225" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB225" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD225" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE225" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG225" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH225" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI225" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ225" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B226" s="2"/>
-      <c r="C226" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D226" s="2"/>
-      <c r="E226" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F226" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H226" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I226" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J226" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K226" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L226" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P226" s="2"/>
-      <c r="Q226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE226" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF226" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG226" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH226" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI226" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ226" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B227" s="2"/>
-      <c r="C227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D227" s="2"/>
-      <c r="E227" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F227" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J227" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K227" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P227" s="2"/>
-      <c r="Q227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE227" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF227" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG227" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI227" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ227" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B228" s="2"/>
-      <c r="C228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D228" s="2"/>
-      <c r="E228" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F228" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J228" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K228" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P228" s="2"/>
-      <c r="Q228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE228" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AF228" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG228" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI228" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ228" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B229" s="2"/>
-      <c r="C229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D229" s="2"/>
-      <c r="E229" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F229" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J229" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K229" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="O229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P229" s="2"/>
-      <c r="Q229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE229" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF229" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG229" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI229" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ229" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D230" s="2"/>
-      <c r="E230" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F230" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J230" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K230" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P230" s="2"/>
-      <c r="Q230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE230" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF230" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG230" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH230" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI230" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ230" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B231" s="2"/>
-      <c r="C231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D231" s="2"/>
-      <c r="E231" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F231" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J231" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K231" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P231" s="2"/>
-      <c r="Q231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE231" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF231" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG231" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI231" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ231" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B232" s="2"/>
-      <c r="C232" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D232" s="2"/>
-      <c r="E232" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F232" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J232" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K232" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N232" s="2"/>
-      <c r="O232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P232" s="2"/>
-      <c r="Q232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA232" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB232" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD232" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE232" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF232" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG232" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH232" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI232" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ232" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B233" s="2"/>
-      <c r="C233" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D233" s="2"/>
-      <c r="E233" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F233" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H233" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="I233" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="J233" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K233" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P233" s="2"/>
-      <c r="Q233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE233" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF233" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG233" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH233" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI233" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ233" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B234" s="2"/>
-      <c r="C234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D234" s="2"/>
-      <c r="E234" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F234" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J234" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K234" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P234" s="2"/>
-      <c r="Q234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE234" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF234" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG234" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI234" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ234" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B235" s="2"/>
-      <c r="C235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D235" s="2"/>
-      <c r="E235" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F235" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J235" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K235" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="O235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P235" s="2"/>
-      <c r="Q235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="R235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE235" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AF235" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG235" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI235" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ235" t="s" s="2">
         <v>69</v>
       </c>
     </row>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
+++ b/branches/mpd-r5/StructureDefinition-FullMedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
